--- a/PositionCalculationSpreadsheet.xlsx
+++ b/PositionCalculationSpreadsheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sduffy/seanduff/VS_Code/sparki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D08AEA5-A90E-244A-BA08-451A3669B221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BC53F3-37D3-664C-9F39-961C5F623D83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="2560" windowWidth="27300" windowHeight="16440" xr2:uid="{EFB6B761-EA5C-A948-A404-44BC8AE1F2CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Angle</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>The angle of movement is from the current x, y position; the real angle of movement is that angle + the robot starting angle… i.e. we always assume robot is at 0,0 orientation 0 when we calculate x, y position</t>
+  </si>
+  <si>
+    <t>Current &lt;</t>
+  </si>
+  <si>
+    <t>Target &lt;</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Min angle</t>
+  </si>
+  <si>
+    <t>Logic for getting from current angle to target angle</t>
   </si>
 </sst>
 </file>
@@ -433,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E648638A-A7D3-AB4D-902F-29D5EBB9ADE1}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -444,6 +459,7 @@
     <col min="4" max="4" width="0.5703125" customWidth="1"/>
     <col min="7" max="7" width="1.5703125" customWidth="1"/>
     <col min="9" max="10" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -510,44 +526,44 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <f>MOD(E5+$C$5,360)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <f>ROUND(COS(H5*(PI()/180)),4)</f>
-        <v>0.96589999999999998</v>
+        <v>0.98480000000000001</v>
       </c>
       <c r="J5">
         <f>ROUND(SIN(H5*(PI()/180)),4)</f>
-        <v>0.25879999999999997</v>
+        <v>0.1736</v>
       </c>
       <c r="K5">
         <f>I5*$F$5</f>
-        <v>4.7329100000000004</v>
+        <v>4.9240000000000004</v>
       </c>
       <c r="L5">
         <f>J5*$F$5</f>
-        <v>1.2681199999999999</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="N5">
         <f>K5+$A$5</f>
-        <v>14.73291</v>
+        <v>14.923999999999999</v>
       </c>
       <c r="O5">
         <f>L5+$B$5</f>
-        <v>3.2681199999999997</v>
+        <v>3.8679999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -557,31 +573,31 @@
       </c>
       <c r="H6">
         <f>MOD(E6+$C$5,360)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I42" si="0">ROUND(COS(H6*(PI()/180)),4)</f>
-        <v>0.90629999999999999</v>
+        <v>0.93969999999999998</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J42" si="1">ROUND(SIN(H6*(PI()/180)),4)</f>
-        <v>0.42259999999999998</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="K6">
         <f>I6*$F$5</f>
-        <v>4.4408700000000003</v>
+        <v>4.6985000000000001</v>
       </c>
       <c r="L6">
         <f>J6*$F$5</f>
-        <v>2.0707400000000002</v>
+        <v>1.7100000000000002</v>
       </c>
       <c r="N6">
         <f>K6+$A$5</f>
-        <v>14.44087</v>
+        <v>14.698499999999999</v>
       </c>
       <c r="O6">
         <f>L6+$B$5</f>
-        <v>4.0707400000000007</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -591,31 +607,31 @@
       </c>
       <c r="H7">
         <f t="shared" ref="H7:H42" si="3">MOD(E7+$C$5,360)</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0.81920000000000004</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>0.5736</v>
+        <v>0.5</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7:K42" si="4">I7*$F$5</f>
-        <v>4.0140800000000008</v>
+        <v>4.33</v>
       </c>
       <c r="L7">
         <f t="shared" ref="L7:L42" si="5">J7*$F$5</f>
-        <v>2.8106400000000002</v>
+        <v>2.5</v>
       </c>
       <c r="N7">
         <f t="shared" ref="N7:N42" si="6">K7+$A$5</f>
-        <v>14.01408</v>
+        <v>14.33</v>
       </c>
       <c r="O7">
         <f t="shared" ref="O7:O42" si="7">L7+$B$5</f>
-        <v>4.8106400000000002</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -625,31 +641,31 @@
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0.70709999999999995</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>0.70709999999999995</v>
+        <v>0.64280000000000004</v>
       </c>
       <c r="K8">
         <f t="shared" si="4"/>
-        <v>3.4647899999999998</v>
+        <v>3.83</v>
       </c>
       <c r="L8">
         <f t="shared" si="5"/>
-        <v>3.4647899999999998</v>
+        <v>3.2140000000000004</v>
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
-        <v>13.464790000000001</v>
+        <v>13.83</v>
       </c>
       <c r="O8">
         <f t="shared" si="7"/>
-        <v>5.4647899999999998</v>
+        <v>6.2140000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -659,31 +675,31 @@
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0.5736</v>
+        <v>0.64280000000000004</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>0.81920000000000004</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="K9">
         <f t="shared" si="4"/>
-        <v>2.8106400000000002</v>
+        <v>3.2140000000000004</v>
       </c>
       <c r="L9">
         <f t="shared" si="5"/>
-        <v>4.0140800000000008</v>
+        <v>3.83</v>
       </c>
       <c r="N9">
         <f t="shared" si="6"/>
-        <v>12.810639999999999</v>
+        <v>13.214</v>
       </c>
       <c r="O9">
         <f t="shared" si="7"/>
-        <v>6.0140800000000008</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -693,31 +709,31 @@
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>0.42259999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>0.90629999999999999</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="K10">
         <f t="shared" si="4"/>
-        <v>2.0707400000000002</v>
+        <v>2.5</v>
       </c>
       <c r="L10">
         <f t="shared" si="5"/>
-        <v>4.4408700000000003</v>
+        <v>4.33</v>
       </c>
       <c r="N10">
         <f t="shared" si="6"/>
-        <v>12.070740000000001</v>
+        <v>12.5</v>
       </c>
       <c r="O10">
         <f t="shared" si="7"/>
-        <v>6.4408700000000003</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -727,31 +743,31 @@
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>0.25879999999999997</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>0.96589999999999998</v>
+        <v>0.93969999999999998</v>
       </c>
       <c r="K11">
         <f t="shared" si="4"/>
-        <v>1.2681199999999999</v>
+        <v>1.7100000000000002</v>
       </c>
       <c r="L11">
         <f t="shared" si="5"/>
-        <v>4.7329100000000004</v>
+        <v>4.6985000000000001</v>
       </c>
       <c r="N11">
         <f t="shared" si="6"/>
-        <v>11.26812</v>
+        <v>11.71</v>
       </c>
       <c r="O11">
         <f t="shared" si="7"/>
-        <v>6.7329100000000004</v>
+        <v>7.6985000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -761,31 +777,31 @@
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>8.72E-2</v>
+        <v>0.1736</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>0.99619999999999997</v>
+        <v>0.98480000000000001</v>
       </c>
       <c r="K12">
         <f t="shared" si="4"/>
-        <v>0.42728000000000005</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="L12">
         <f t="shared" si="5"/>
-        <v>4.8813800000000001</v>
+        <v>4.9240000000000004</v>
       </c>
       <c r="N12">
         <f t="shared" si="6"/>
-        <v>10.42728</v>
+        <v>10.868</v>
       </c>
       <c r="O12">
         <f t="shared" si="7"/>
-        <v>6.8813800000000001</v>
+        <v>7.9240000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -795,31 +811,31 @@
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>-8.72E-2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>0.99619999999999997</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <f t="shared" si="4"/>
-        <v>-0.42728000000000005</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <f t="shared" si="5"/>
-        <v>4.8813800000000001</v>
+        <v>5</v>
       </c>
       <c r="N13">
         <f t="shared" si="6"/>
-        <v>9.5727200000000003</v>
+        <v>10</v>
       </c>
       <c r="O13">
         <f t="shared" si="7"/>
-        <v>6.8813800000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -829,31 +845,31 @@
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>-0.25879999999999997</v>
+        <v>-0.1736</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>0.96589999999999998</v>
+        <v>0.98480000000000001</v>
       </c>
       <c r="K14">
         <f t="shared" si="4"/>
-        <v>-1.2681199999999999</v>
+        <v>-0.86799999999999999</v>
       </c>
       <c r="L14">
         <f t="shared" si="5"/>
-        <v>4.7329100000000004</v>
+        <v>4.9240000000000004</v>
       </c>
       <c r="N14">
         <f t="shared" si="6"/>
-        <v>8.7318800000000003</v>
+        <v>9.1319999999999997</v>
       </c>
       <c r="O14">
         <f t="shared" si="7"/>
-        <v>6.7329100000000004</v>
+        <v>7.9240000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -863,31 +879,31 @@
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>-0.42259999999999998</v>
+        <v>-0.34200000000000003</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>0.90629999999999999</v>
+        <v>0.93969999999999998</v>
       </c>
       <c r="K15">
         <f t="shared" si="4"/>
-        <v>-2.0707400000000002</v>
+        <v>-1.7100000000000002</v>
       </c>
       <c r="L15">
         <f t="shared" si="5"/>
-        <v>4.4408700000000003</v>
+        <v>4.6985000000000001</v>
       </c>
       <c r="N15">
         <f t="shared" si="6"/>
-        <v>7.9292599999999993</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="O15">
         <f t="shared" si="7"/>
-        <v>6.4408700000000003</v>
+        <v>7.6985000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -897,31 +913,31 @@
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>-0.5736</v>
+        <v>-0.5</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>0.81920000000000004</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="K16">
         <f t="shared" si="4"/>
-        <v>-2.8106400000000002</v>
+        <v>-2.5</v>
       </c>
       <c r="L16">
         <f t="shared" si="5"/>
-        <v>4.0140800000000008</v>
+        <v>4.33</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>7.1893599999999998</v>
+        <v>7.5</v>
       </c>
       <c r="O16">
         <f t="shared" si="7"/>
-        <v>6.0140800000000008</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.25">
@@ -931,31 +947,31 @@
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>-0.70709999999999995</v>
+        <v>-0.64280000000000004</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>0.70709999999999995</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="K17">
         <f t="shared" si="4"/>
-        <v>-3.4647899999999998</v>
+        <v>-3.2140000000000004</v>
       </c>
       <c r="L17">
         <f t="shared" si="5"/>
-        <v>3.4647899999999998</v>
+        <v>3.83</v>
       </c>
       <c r="N17">
         <f t="shared" si="6"/>
-        <v>6.5352100000000002</v>
+        <v>6.7859999999999996</v>
       </c>
       <c r="O17">
         <f t="shared" si="7"/>
-        <v>5.4647899999999998</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.25">
@@ -965,31 +981,31 @@
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>-0.81920000000000004</v>
+        <v>-0.76600000000000001</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>0.5736</v>
+        <v>0.64280000000000004</v>
       </c>
       <c r="K18">
         <f t="shared" si="4"/>
-        <v>-4.0140800000000008</v>
+        <v>-3.83</v>
       </c>
       <c r="L18">
         <f t="shared" si="5"/>
-        <v>2.8106400000000002</v>
+        <v>3.2140000000000004</v>
       </c>
       <c r="N18">
         <f t="shared" si="6"/>
-        <v>5.9859199999999992</v>
+        <v>6.17</v>
       </c>
       <c r="O18">
         <f t="shared" si="7"/>
-        <v>4.8106400000000002</v>
+        <v>6.2140000000000004</v>
       </c>
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.25">
@@ -999,31 +1015,31 @@
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>-0.90629999999999999</v>
+        <v>-0.86599999999999999</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>0.42259999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="K19">
         <f t="shared" si="4"/>
-        <v>-4.4408700000000003</v>
+        <v>-4.33</v>
       </c>
       <c r="L19">
         <f t="shared" si="5"/>
-        <v>2.0707400000000002</v>
+        <v>2.5</v>
       </c>
       <c r="N19">
         <f t="shared" si="6"/>
-        <v>5.5591299999999997</v>
+        <v>5.67</v>
       </c>
       <c r="O19">
         <f t="shared" si="7"/>
-        <v>4.0707400000000007</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="20" spans="5:15" x14ac:dyDescent="0.25">
@@ -1033,31 +1049,31 @@
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>-0.96589999999999998</v>
+        <v>-0.93969999999999998</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>0.25879999999999997</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="K20">
         <f t="shared" si="4"/>
-        <v>-4.7329100000000004</v>
+        <v>-4.6985000000000001</v>
       </c>
       <c r="L20">
         <f t="shared" si="5"/>
-        <v>1.2681199999999999</v>
+        <v>1.7100000000000002</v>
       </c>
       <c r="N20">
         <f t="shared" si="6"/>
-        <v>5.2670899999999996</v>
+        <v>5.3014999999999999</v>
       </c>
       <c r="O20">
         <f t="shared" si="7"/>
-        <v>3.2681199999999997</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="21" spans="5:15" x14ac:dyDescent="0.25">
@@ -1067,31 +1083,31 @@
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>-0.99619999999999997</v>
+        <v>-0.98480000000000001</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>8.72E-2</v>
+        <v>0.1736</v>
       </c>
       <c r="K21">
         <f t="shared" si="4"/>
-        <v>-4.8813800000000001</v>
+        <v>-4.9240000000000004</v>
       </c>
       <c r="L21">
         <f t="shared" si="5"/>
-        <v>0.42728000000000005</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="N21">
         <f t="shared" si="6"/>
-        <v>5.1186199999999999</v>
+        <v>5.0759999999999996</v>
       </c>
       <c r="O21">
         <f t="shared" si="7"/>
-        <v>2.4272800000000001</v>
+        <v>3.8679999999999999</v>
       </c>
     </row>
     <row r="22" spans="5:15" x14ac:dyDescent="0.25">
@@ -1101,31 +1117,31 @@
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>-0.99619999999999997</v>
+        <v>-1</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>-8.72E-2</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <f t="shared" si="4"/>
-        <v>-4.8813800000000001</v>
+        <v>-5</v>
       </c>
       <c r="L22">
         <f t="shared" si="5"/>
-        <v>-0.42728000000000005</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <f t="shared" si="6"/>
-        <v>5.1186199999999999</v>
+        <v>5</v>
       </c>
       <c r="O22">
         <f t="shared" si="7"/>
-        <v>1.5727199999999999</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="5:15" x14ac:dyDescent="0.25">
@@ -1135,31 +1151,31 @@
       </c>
       <c r="H23">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>-0.96589999999999998</v>
+        <v>-0.98480000000000001</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>-0.25879999999999997</v>
+        <v>-0.1736</v>
       </c>
       <c r="K23">
         <f t="shared" si="4"/>
-        <v>-4.7329100000000004</v>
+        <v>-4.9240000000000004</v>
       </c>
       <c r="L23">
         <f t="shared" si="5"/>
-        <v>-1.2681199999999999</v>
+        <v>-0.86799999999999999</v>
       </c>
       <c r="N23">
         <f t="shared" si="6"/>
-        <v>5.2670899999999996</v>
+        <v>5.0759999999999996</v>
       </c>
       <c r="O23">
         <f t="shared" si="7"/>
-        <v>0.73188000000000009</v>
+        <v>2.1320000000000001</v>
       </c>
     </row>
     <row r="24" spans="5:15" x14ac:dyDescent="0.25">
@@ -1169,31 +1185,31 @@
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>-0.90629999999999999</v>
+        <v>-0.93969999999999998</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>-0.42259999999999998</v>
+        <v>-0.34200000000000003</v>
       </c>
       <c r="K24">
         <f t="shared" si="4"/>
-        <v>-4.4408700000000003</v>
+        <v>-4.6985000000000001</v>
       </c>
       <c r="L24">
         <f t="shared" si="5"/>
-        <v>-2.0707400000000002</v>
+        <v>-1.7100000000000002</v>
       </c>
       <c r="N24">
         <f t="shared" si="6"/>
-        <v>5.5591299999999997</v>
+        <v>5.3014999999999999</v>
       </c>
       <c r="O24">
         <f t="shared" si="7"/>
-        <v>-7.0740000000000247E-2</v>
+        <v>1.2899999999999998</v>
       </c>
     </row>
     <row r="25" spans="5:15" x14ac:dyDescent="0.25">
@@ -1203,31 +1219,31 @@
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>-0.81920000000000004</v>
+        <v>-0.86599999999999999</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>-0.5736</v>
+        <v>-0.5</v>
       </c>
       <c r="K25">
         <f t="shared" si="4"/>
-        <v>-4.0140800000000008</v>
+        <v>-4.33</v>
       </c>
       <c r="L25">
         <f t="shared" si="5"/>
-        <v>-2.8106400000000002</v>
+        <v>-2.5</v>
       </c>
       <c r="N25">
         <f t="shared" si="6"/>
-        <v>5.9859199999999992</v>
+        <v>5.67</v>
       </c>
       <c r="O25">
         <f t="shared" si="7"/>
-        <v>-0.81064000000000025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="5:15" x14ac:dyDescent="0.25">
@@ -1237,31 +1253,31 @@
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>-0.70709999999999995</v>
+        <v>-0.76600000000000001</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>-0.70709999999999995</v>
+        <v>-0.64280000000000004</v>
       </c>
       <c r="K26">
         <f t="shared" si="4"/>
-        <v>-3.4647899999999998</v>
+        <v>-3.83</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
-        <v>-3.4647899999999998</v>
+        <v>-3.2140000000000004</v>
       </c>
       <c r="N26">
         <f t="shared" si="6"/>
-        <v>6.5352100000000002</v>
+        <v>6.17</v>
       </c>
       <c r="O26">
         <f t="shared" si="7"/>
-        <v>-1.4647899999999998</v>
+        <v>-0.21400000000000041</v>
       </c>
     </row>
     <row r="27" spans="5:15" x14ac:dyDescent="0.25">
@@ -1271,31 +1287,31 @@
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>-0.5736</v>
+        <v>-0.64280000000000004</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>-0.81920000000000004</v>
+        <v>-0.76600000000000001</v>
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
-        <v>-2.8106400000000002</v>
+        <v>-3.2140000000000004</v>
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>-4.0140800000000008</v>
+        <v>-3.83</v>
       </c>
       <c r="N27">
         <f t="shared" si="6"/>
-        <v>7.1893599999999998</v>
+        <v>6.7859999999999996</v>
       </c>
       <c r="O27">
         <f t="shared" si="7"/>
-        <v>-2.0140800000000008</v>
+        <v>-0.83000000000000007</v>
       </c>
     </row>
     <row r="28" spans="5:15" x14ac:dyDescent="0.25">
@@ -1305,31 +1321,31 @@
       </c>
       <c r="H28">
         <f t="shared" si="3"/>
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>-0.42259999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>-0.90629999999999999</v>
+        <v>-0.86599999999999999</v>
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
-        <v>-2.0707400000000002</v>
+        <v>-2.5</v>
       </c>
       <c r="L28">
         <f t="shared" si="5"/>
-        <v>-4.4408700000000003</v>
+        <v>-4.33</v>
       </c>
       <c r="N28">
         <f t="shared" si="6"/>
-        <v>7.9292599999999993</v>
+        <v>7.5</v>
       </c>
       <c r="O28">
         <f t="shared" si="7"/>
-        <v>-2.4408700000000003</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="29" spans="5:15" x14ac:dyDescent="0.25">
@@ -1339,31 +1355,31 @@
       </c>
       <c r="H29">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>-0.25879999999999997</v>
+        <v>-0.34200000000000003</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>-0.96589999999999998</v>
+        <v>-0.93969999999999998</v>
       </c>
       <c r="K29">
         <f t="shared" si="4"/>
-        <v>-1.2681199999999999</v>
+        <v>-1.7100000000000002</v>
       </c>
       <c r="L29">
         <f t="shared" si="5"/>
-        <v>-4.7329100000000004</v>
+        <v>-4.6985000000000001</v>
       </c>
       <c r="N29">
         <f t="shared" si="6"/>
-        <v>8.7318800000000003</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="O29">
         <f t="shared" si="7"/>
-        <v>-2.7329100000000004</v>
+        <v>-1.6985000000000001</v>
       </c>
     </row>
     <row r="30" spans="5:15" x14ac:dyDescent="0.25">
@@ -1373,31 +1389,31 @@
       </c>
       <c r="H30">
         <f t="shared" si="3"/>
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>-8.72E-2</v>
+        <v>-0.1736</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>-0.99619999999999997</v>
+        <v>-0.98480000000000001</v>
       </c>
       <c r="K30">
         <f t="shared" si="4"/>
-        <v>-0.42728000000000005</v>
+        <v>-0.86799999999999999</v>
       </c>
       <c r="L30">
         <f t="shared" si="5"/>
-        <v>-4.8813800000000001</v>
+        <v>-4.9240000000000004</v>
       </c>
       <c r="N30">
         <f t="shared" si="6"/>
-        <v>9.5727200000000003</v>
+        <v>9.1319999999999997</v>
       </c>
       <c r="O30">
         <f t="shared" si="7"/>
-        <v>-2.8813800000000001</v>
+        <v>-1.9240000000000004</v>
       </c>
     </row>
     <row r="31" spans="5:15" x14ac:dyDescent="0.25">
@@ -1407,31 +1423,31 @@
       </c>
       <c r="H31">
         <f t="shared" si="3"/>
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>8.72E-2</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>-0.99619999999999997</v>
+        <v>-1</v>
       </c>
       <c r="K31">
         <f t="shared" si="4"/>
-        <v>0.42728000000000005</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <f t="shared" si="5"/>
-        <v>-4.8813800000000001</v>
+        <v>-5</v>
       </c>
       <c r="N31">
         <f t="shared" si="6"/>
-        <v>10.42728</v>
+        <v>10</v>
       </c>
       <c r="O31">
         <f t="shared" si="7"/>
-        <v>-2.8813800000000001</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="32" spans="5:15" x14ac:dyDescent="0.25">
@@ -1441,371 +1457,574 @@
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>0.25879999999999997</v>
+        <v>0.1736</v>
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>-0.96589999999999998</v>
+        <v>-0.98480000000000001</v>
       </c>
       <c r="K32">
         <f t="shared" si="4"/>
-        <v>1.2681199999999999</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="L32">
         <f t="shared" si="5"/>
-        <v>-4.7329100000000004</v>
+        <v>-4.9240000000000004</v>
       </c>
       <c r="N32">
         <f t="shared" si="6"/>
-        <v>11.26812</v>
+        <v>10.868</v>
       </c>
       <c r="O32">
         <f t="shared" si="7"/>
-        <v>-2.7329100000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
+        <v>-1.9240000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E33">
         <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>0.42259999999999998</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>-0.90629999999999999</v>
+        <v>-0.93969999999999998</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>2.0707400000000002</v>
+        <v>1.7100000000000002</v>
       </c>
       <c r="L33">
         <f t="shared" si="5"/>
-        <v>-4.4408700000000003</v>
+        <v>-4.6985000000000001</v>
       </c>
       <c r="N33">
         <f t="shared" si="6"/>
-        <v>12.070740000000001</v>
+        <v>11.71</v>
       </c>
       <c r="O33">
         <f t="shared" si="7"/>
-        <v>-2.4408700000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
+        <v>-1.6985000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E34">
         <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="H34">
         <f t="shared" si="3"/>
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>0.5736</v>
+        <v>0.5</v>
       </c>
       <c r="J34">
         <f t="shared" si="1"/>
-        <v>-0.81920000000000004</v>
+        <v>-0.86599999999999999</v>
       </c>
       <c r="K34">
         <f t="shared" si="4"/>
-        <v>2.8106400000000002</v>
+        <v>2.5</v>
       </c>
       <c r="L34">
         <f t="shared" si="5"/>
-        <v>-4.0140800000000008</v>
+        <v>-4.33</v>
       </c>
       <c r="N34">
         <f t="shared" si="6"/>
-        <v>12.810639999999999</v>
+        <v>12.5</v>
       </c>
       <c r="O34">
         <f t="shared" si="7"/>
-        <v>-2.0140800000000008</v>
-      </c>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+        <v>-1.33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E35">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="H35">
         <f t="shared" si="3"/>
+        <v>310</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>0.64280000000000004</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>-0.76600000000000001</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>3.2140000000000004</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>-3.83</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="6"/>
+        <v>13.214</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="7"/>
+        <v>-0.83000000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>-0.64280000000000004</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>3.83</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="5"/>
+        <v>-3.2140000000000004</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="6"/>
+        <v>13.83</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="7"/>
+        <v>-0.21400000000000041</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>330</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>4.33</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="5"/>
+        <v>-2.5</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="6"/>
+        <v>14.33</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>340</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>-0.34200000000000003</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>4.6985000000000001</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="5"/>
+        <v>-1.7100000000000002</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="6"/>
+        <v>14.698499999999999</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="7"/>
+        <v>1.2899999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>-0.1736</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>4.9240000000000004</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="5"/>
+        <v>-0.86799999999999999</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="6"/>
+        <v>14.923999999999999</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="7"/>
+        <v>2.1320000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>0.1736</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>4.9240000000000004</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="5"/>
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="6"/>
+        <v>14.923999999999999</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="7"/>
+        <v>3.8679999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>370</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="4"/>
+        <v>4.6985000000000001</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="5"/>
+        <v>1.7100000000000002</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="6"/>
+        <v>14.698499999999999</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="7"/>
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>35</v>
+      </c>
+      <c r="B46">
         <v>315</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="0"/>
-        <v>0.70709999999999995</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="1"/>
-        <v>-0.70709999999999995</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="4"/>
-        <v>3.4647899999999998</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="5"/>
-        <v>-3.4647899999999998</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="6"/>
-        <v>13.464790000000001</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="7"/>
-        <v>-1.4647899999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E36">
-        <f t="shared" si="2"/>
+      <c r="C46">
+        <f>B46-$A$46</f>
+        <v>280</v>
+      </c>
+      <c r="E46">
+        <f>IF(C46&lt;-180,360+C46,IF(C46&gt;180,-(360-C46),C46))</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f>B46+30</f>
+        <v>345</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:C58" si="8">B47-$A$46</f>
         <v>310</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="3"/>
-        <v>325</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="0"/>
-        <v>0.81920000000000004</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="1"/>
-        <v>-0.5736</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="4"/>
-        <v>4.0140800000000008</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="5"/>
-        <v>-2.8106400000000002</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="6"/>
-        <v>14.01408</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="7"/>
-        <v>-0.81064000000000025</v>
-      </c>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E37">
-        <f t="shared" si="2"/>
-        <v>320</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="3"/>
-        <v>335</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="0"/>
-        <v>0.90629999999999999</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="1"/>
-        <v>-0.42259999999999998</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="4"/>
-        <v>4.4408700000000003</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="5"/>
-        <v>-2.0707400000000002</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="6"/>
-        <v>14.44087</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="7"/>
-        <v>-7.0740000000000247E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E38">
-        <f t="shared" si="2"/>
-        <v>330</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="3"/>
-        <v>345</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="0"/>
-        <v>0.96589999999999998</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="1"/>
-        <v>-0.25879999999999997</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="4"/>
-        <v>4.7329100000000004</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="5"/>
-        <v>-1.2681199999999999</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="6"/>
-        <v>14.73291</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="7"/>
-        <v>0.73188000000000009</v>
-      </c>
-    </row>
-    <row r="39" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E39">
-        <f t="shared" si="2"/>
+      <c r="E47">
+        <f t="shared" ref="E47:E58" si="9">IF(C47&lt;-180,360+C47,IF(C47&gt;180,-(360-C47),C47))</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" ref="B48:B58" si="10">B47+30</f>
+        <v>375</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="3"/>
-        <v>355</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="0"/>
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="1"/>
-        <v>-8.72E-2</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="4"/>
-        <v>4.8813800000000001</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="5"/>
-        <v>-0.42728000000000005</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="6"/>
-        <v>14.88138</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="7"/>
-        <v>1.5727199999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E40">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="0"/>
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="1"/>
-        <v>8.72E-2</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="4"/>
-        <v>4.8813800000000001</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="5"/>
-        <v>0.42728000000000005</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="6"/>
-        <v>14.88138</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="7"/>
-        <v>2.4272800000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E41">
-        <f t="shared" si="2"/>
-        <v>360</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="0"/>
-        <v>0.96589999999999998</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="1"/>
-        <v>0.25879999999999997</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="4"/>
-        <v>4.7329100000000004</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="5"/>
-        <v>1.2681199999999999</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="6"/>
-        <v>14.73291</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="7"/>
-        <v>3.2681199999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E42">
-        <f t="shared" si="2"/>
+      <c r="E48">
+        <f t="shared" si="9"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" si="10"/>
+        <v>405</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="8"/>
         <v>370</v>
       </c>
-      <c r="H42">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="0"/>
-        <v>0.90629999999999999</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="1"/>
-        <v>0.42259999999999998</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="4"/>
-        <v>4.4408700000000003</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="5"/>
-        <v>2.0707400000000002</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="6"/>
-        <v>14.44087</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="7"/>
-        <v>4.0707400000000007</v>
+      <c r="E49">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f t="shared" si="10"/>
+        <v>435</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f t="shared" si="10"/>
+        <v>465</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="8"/>
+        <v>430</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f t="shared" si="10"/>
+        <v>495</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="8"/>
+        <v>460</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f t="shared" si="10"/>
+        <v>525</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="8"/>
+        <v>490</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="9"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f t="shared" si="10"/>
+        <v>555</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="8"/>
+        <v>520</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f t="shared" si="10"/>
+        <v>585</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="8"/>
+        <v>550</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="9"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f t="shared" si="10"/>
+        <v>615</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="8"/>
+        <v>580</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="9"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" si="10"/>
+        <v>645</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="8"/>
+        <v>610</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="9"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f t="shared" si="10"/>
+        <v>675</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="8"/>
+        <v>640</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="9"/>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
